--- a/biology/Écologie/Prairie_humide_à_jonc_et_molinie/Prairie_humide_à_jonc_et_molinie.xlsx
+++ b/biology/Écologie/Prairie_humide_à_jonc_et_molinie/Prairie_humide_à_jonc_et_molinie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prairie_humide_%C3%A0_jonc_et_molinie</t>
+          <t>Prairie_humide_à_jonc_et_molinie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prairies humides à jonc et molinie sont un type d'habitat qui se rencontre sur des sols neutres et acides, mal drainés, des plaines et des plateaux.  Il en existe dans le Sud-Ouest de l'Angleterre, en particulier dans le Devon. 
 La végétation est composée d'une  prairie semi-naturelle  riches en espèces contenant en abondance une espèce de graminées, la molinie bleue (Molinia caerulea , et d'une ou plusieurs espèces de joncs : jonc à fleurs acérées ( Juncus acutiflorus ), jonc articulés ( Juncus articulatus ) et jonc à fleurs arrondies (Juncus subnodulosus ).
-Au Royaume-Uni, on estime qu'il ne subsiste que 8 % de ce type d'habitat par rapport à la situation de 1900. La superficie de ce type d'habitat y serait inférieure à 70 000 hectares[1]. Dans ce pays, l'importance de ces « prairies » est reconnue et elles ont été classées comme « habitat prioritaire » dans le plan d'action pour la biodiversité du Royaume-Uni. 
+Au Royaume-Uni, on estime qu'il ne subsiste que 8 % de ce type d'habitat par rapport à la situation de 1900. La superficie de ce type d'habitat y serait inférieure à 70 000 hectares. Dans ce pays, l'importance de ces « prairies » est reconnue et elles ont été classées comme « habitat prioritaire » dans le plan d'action pour la biodiversité du Royaume-Uni. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prairie_humide_%C3%A0_jonc_et_molinie</t>
+          <t>Prairie_humide_à_jonc_et_molinie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces de graminées typiques
-Agrostis commun (Agrostis capillaris), crételle des prés (Cynosurus cristatus), glycérie flottante (Glyceria fluitans) , vulpin genouillé (Alopecurus geniculatus, molinie bleue (Molinia caerulea), fétuque rouge (Festuca rubra),  flouve odorante (Anthoxanthum odoratum)[2].
-Autres espèces végétales caractéristiques
-Selon le Natural England Higher Level Stewardship Farm Environmental Plan un habitat de ce type de prairies est défini si on y trouve fréquemment au moins deux des espèces suivantes, et occasionnellement deux autres espèces[2]
+          <t>Espèces de graminées typiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrostis commun (Agrostis capillaris), crételle des prés (Cynosurus cristatus), glycérie flottante (Glyceria fluitans) , vulpin genouillé (Alopecurus geniculatus, molinie bleue (Molinia caerulea), fétuque rouge (Festuca rubra),  flouve odorante (Anthoxanthum odoratum).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prairie_humide_à_jonc_et_molinie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prairie_humide_%C3%A0_jonc_et_molinie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces indicatrices</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres espèces végétales caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Natural England Higher Level Stewardship Farm Environmental Plan un habitat de ce type de prairies est défini si on y trouve fréquemment au moins deux des espèces suivantes, et occasionnellement deux autres espèces
 Achillée sternutatoire (Achillea ptarmica)
 Angélique des bois (Angelica sylvaticum)
 Benoîte des ruisseaux (Geum rivale)
@@ -557,8 +609,43 @@
 Valériane dioïque (Valeriana dioica)
 Valériane officinale (Valeriana officinalis)
 Violette des marais (Viola palustris)
-Espèces animales clés
-Insectes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prairie_humide_à_jonc_et_molinie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prairie_humide_%C3%A0_jonc_et_molinie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces indicatrices</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces animales clés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Insectes :
 Damier de la succise (Eurodryas aurinia).
 Demi-deuil (Melanargia galathea).
 Sphinx bombyliforme (Hemaris tityus).
@@ -571,31 +658,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Prairie_humide_%C3%A0_jonc_et_molinie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prairie_humide_à_jonc_et_molinie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prairie_humide_%C3%A0_jonc_et_molinie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Drainage
 Culture
